--- a/TrialCondition.xlsx
+++ b/TrialCondition.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naiqixiao/Desktop/face-attractiveness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30C746E-DB03-F44E-AB3A-BD58A3ED94A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB633705-A5BE-4A48-8779-3E175D31F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19700" yWindow="1500" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
@@ -34,14 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="30">
   <si>
     <t>Image</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
     <t>AgeGroup</t>
   </si>
   <si>
@@ -109,6 +106,24 @@
   </si>
   <si>
     <t>Images/midA-F-ver3.jpg</t>
+  </si>
+  <si>
+    <t>faceGender</t>
+  </si>
+  <si>
+    <t>senadult</t>
+  </si>
+  <si>
+    <t>Images/sA-M-ver7.jpg</t>
+  </si>
+  <si>
+    <t>Images/sA-M-ver4.jpg</t>
+  </si>
+  <si>
+    <t>Images/sA-F-ver7.jpg</t>
+  </si>
+  <si>
+    <t>Images/sA-F-ver1.jpg</t>
   </si>
 </sst>
 </file>
@@ -471,7 +486,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,230 +499,230 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/TrialCondition.xlsx
+++ b/TrialCondition.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naiqixiao/Desktop/face-attractiveness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB633705-A5BE-4A48-8779-3E175D31F0D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4315CB9-F705-4C42-BA6C-4CC9A3E901E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19700" yWindow="1500" windowWidth="16420" windowHeight="15860" xr2:uid="{7D7A9A1A-9455-634A-B936-3956F0F73622}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
